--- a/static/articles de blog/pro_particulier_avantages_inconveniants.xlsx
+++ b/static/articles de blog/pro_particulier_avantages_inconveniants.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <calcPr/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Pro</t>
   </si>
@@ -36,18 +33,18 @@
     <t>Avantages</t>
   </si>
   <si>
-    <t xml:space="preserve">*Authenticité garantie des métaux et scellés.
+    <t xml:space="preserve">*Authenticité 
+* Scellés et facture.
 *Service client et volonté de satisfaire.
-*Déclaration au fisc de vos informations et donc rarement une déclaration à faire par vous même !
-* Reprise de votre monnaie à une cotation fixe
-* Gros volume possible, qualité homogène (pas de faux, anéne avec alliage différent)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Prix parfois avantageux, frais de port négociable
-* Discrétion
+* Reprise de votre monnaie possible
+* Gros volume possible, qualité homogène
+* Du choix à tout instant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Discrétion
 * Pièces rares ou insolites
 * Pas de frais de traitement
-* Carnet de contacts</t>
+* Carnet de contacts (permet de saisir des opportunités à termes)</t>
   </si>
   <si>
     <t xml:space="preserve">* Prix compétitifs
@@ -56,12 +53,13 @@
   </si>
   <si>
     <t xml:space="preserve">*Conseils personnalisés
-*Voir la pièce avant de l'acheter
+* Voir la pièce avant de l'acheter
 * Prix négociable
 * Pas de frais de port </t>
   </si>
   <si>
-    <t xml:space="preserve">* Paiement virement ou paypal
+    <t xml:space="preserve">* Prix parfois avantageux, frais de port négociable
+* Paiement virement ou paypal
 * Pas frais de transport
 * Frais de port négociable</t>
   </si>
@@ -74,17 +72,26 @@
   </si>
   <si>
     <t xml:space="preserve">* La prime de la pièce contient la marge du revendeur 
-et ses coûts de fonctionnement (salaires)</t>
+et ses coûts de fonctionnement (salaires)
+*Vos informations personnelles sont connues</t>
   </si>
   <si>
     <t xml:space="preserve">* Rarement une facture ou un scellé
-* Travail de recherche et patience pour trouver la bonne offre
-* Déclaration à faire soi même au fisc</t>
+* Travail de recherche et patience pour trouver la bonne offre</t>
   </si>
   <si>
     <t xml:space="preserve">* Pas toujours clair sur les frais de traitement supplémentaires.
 * frais de port souvent  à votre charge
-* Pas de conseil</t>
+* Peu de vrai conseil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Risque de perte
+* Frais de transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Risque d'arnaque (photos trompeuses, Faux)
+* Commission de la plateforme de vente</t>
   </si>
   <si>
     <t xml:space="preserve">* Risque de vol
@@ -92,17 +99,13 @@
 * Frais de transport</t>
   </si>
   <si>
-    <t xml:space="preserve">* Risque d'arnaque (photos trompeuses, Faux)
-* Commission de la plateforme de vente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Notre avis</t>
   </si>
   <si>
     <t xml:space="preserve">Pour quelques pièces en tant qu'investisseur débutant. Chemin le plus court et sécurisé pour acquérir une pièce. </t>
   </si>
   <si>
-    <t xml:space="preserve">Etre au contact d'un expert permet d'apprendre plus vite mais aussi d'éviter des écueils qui coûte cher (il peut vous aider à définir une stratégie de placement selon vos revenus).</t>
+    <t xml:space="preserve">Etre au contact d'un expert permet d'apprendre plus vite mais aussi d'éviter des écueils qui coûte cher.</t>
   </si>
   <si>
     <t xml:space="preserve">Pour quelques pièces en tant qu'investir chevronné, prêt à assumer un peu plus de risques et donc obtenir un meilleur rendement. Lire les avis des clients.
@@ -169,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -184,9 +187,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -203,9 +203,6 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,9 +216,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -760,85 +754,85 @@
       </c>
     </row>
     <row r="5" ht="101.25" customHeight="1">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="6"/>
     </row>
-    <row r="6" ht="57">
-      <c r="C6" s="5"/>
-      <c r="D6" s="8" t="s">
+    <row r="6" ht="71.25">
+      <c r="C6" s="3"/>
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="77.25" customHeight="1">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" ht="84" customHeight="1">
-      <c r="C8" s="5"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>16</v>
+      <c r="G8" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="91.5" customHeight="1">
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="F9" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="D11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
